--- a/Week/Master Files/FormulaSheet.xlsx
+++ b/Week/Master Files/FormulaSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C-BIA\PurchaseOrder\Week\Master Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\TrimphPO\Week\Master Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515535AB-1306-4805-8064-6025383CDBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D1A265-D6E3-4AB0-AD84-3AE68E6FB940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormulaSheet" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>VLOOKUP(B#VAL#,'{PATH}[Location 2 Master.xlsx]Sheet1'!$A:$D,4,FALSE)</t>
   </si>
   <si>
-    <t>C:\C-BIA\PurchaseOrder\Week\Master Files\</t>
-  </si>
-  <si>
     <t>Vouchertypename</t>
   </si>
   <si>
@@ -615,7 +612,10 @@
 "")</t>
   </si>
   <si>
-    <t>VLOOKUP(B#VAL#,'C:\C-BIA\PurchaseOrder\Week\PivotTable\[PivotTableoutput.xlsx]Sheet1'!$A:$X,24,FALSE)</t>
+    <t>C:\Users\HP\Desktop\TrimphPO\Week\Master Files\</t>
+  </si>
+  <si>
+    <t>VLOOKUP(B#VAL#,'C:\Users\HP\Desktop\TrimphPO\Week\PivotTable\[PivotTableoutput.xlsx]Sheet1'!$A:$X,24,FALSE)</t>
   </si>
 </sst>
 </file>
@@ -999,21 +999,21 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="2" width="103.81640625" customWidth="1"/>
-    <col min="3" max="3" width="94.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="103.77734375" customWidth="1"/>
+    <col min="3" max="3" width="94.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,13 +1033,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="str">
         <f>SUBSTITUTE(C2,"{PATH}",'System Path'!$A$1,1)</f>
-        <v>VLOOKUP(#VAL#5,'C:\C-BIA\PurchaseOrder\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</v>
+        <v>VLOOKUP(#VAL#5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1051,13 +1051,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="str">
         <f>SUBSTITUTE(C3,"{PATH}",'System Path'!$A$1,1)</f>
-        <v>VLOOKUP(B#VAL#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[Item Master.xlsx]Item Master'!$A:$S,19,FALSE)</v>
+        <v>VLOOKUP(B#VAL#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Item Master.xlsx]Item Master'!$A:$S,19,FALSE)</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1069,13 +1069,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="str">
         <f>SUBSTITUTE(C4,"{PATH}",'System Path'!$A$1,1)</f>
-        <v>VLOOKUP(B#VAL#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[Item Master.xlsx]Item Master'!$A:$C,3,FALSE)</v>
+        <v>VLOOKUP(B#VAL#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Item Master.xlsx]Item Master'!$A:$C,3,FALSE)</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -1087,13 +1087,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="str">
         <f>SUBSTITUTE(C5,"{PATH}",'System Path'!$A$1,1)</f>
-        <v>VLOOKUP(B#VAL#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[Item Master.xlsx]Item Master'!$A:$B,2,FALSE)</v>
+        <v>VLOOKUP(B#VAL#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Item Master.xlsx]Item Master'!$A:$B,2,FALSE)</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1105,13 +1105,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="str">
         <f>SUBSTITUTE(C6,"{PATH}",'System Path'!$A$1,1)</f>
-        <v>VLOOKUP(B#VAL#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[Item Master.xlsx]Item Master'!$A:$M,13,FALSE)</v>
+        <v>VLOOKUP(B#VAL#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Item Master.xlsx]Item Master'!$A:$M,13,FALSE)</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -1123,13 +1123,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="str">
         <f>SUBSTITUTE(C7,"{PATH}",'System Path'!$A$1,1)</f>
-        <v>VLOOKUP(B#VAL#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[Location 2 Master.xlsx]Sheet1'!$A:$C,3,FALSE)</v>
+        <v>VLOOKUP(B#VAL#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location 2 Master.xlsx]Sheet1'!$A:$C,3,FALSE)</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1138,13 +1138,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="str">
         <f>SUBSTITUTE(C8,"{PATH}",'System Path'!$A$1,1)</f>
-        <v>VLOOKUP(B#VAL#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[Location 2 Master.xlsx]Sheet1'!$A:$D,4,FALSE)</v>
+        <v>VLOOKUP(B#VAL#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location 2 Master.xlsx]Sheet1'!$A:$D,4,FALSE)</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1153,13 +1153,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="str">
         <f>SUBSTITUTE(C9,"{PATH}",'System Path'!$A$1,1)</f>
-        <v>VLOOKUP(B#VAL#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[Item Master.xlsx]Item Master'!$A:$M,13,FALSE)</v>
+        <v>VLOOKUP(B#VAL#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Item Master.xlsx]Item Master'!$A:$M,13,FALSE)</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1171,13 +1171,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="str">
         <f>SUBSTITUTE(C10,"{PATH}",'System Path'!$A$1,1)</f>
-        <v>VLOOKUP(A#VAL#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</v>
+        <v>VLOOKUP(A#VAL#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -1189,13 +1189,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="str">
         <f>C11</f>
-        <v>VLOOKUP(B#VAL#,'C:\C-BIA\PurchaseOrder\Week\PivotTable\[PivotTableoutput.xlsx]Sheet1'!$A:$X,24,FALSE)</v>
+        <v>VLOOKUP(B#VAL#,'C:\Users\HP\Desktop\TrimphPO\Week\PivotTable\[PivotTableoutput.xlsx]Sheet1'!$A:$X,24,FALSE)</v>
       </c>
       <c r="C11" t="s">
         <v>141</v>
@@ -1213,460 +1213,460 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="10" t="str">
         <f>SUBSTITUTE(C13,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$B,2,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$B,2,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$B,2,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$B,2,FALSE),
    "Error")),
 "Scan=0")</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="10" t="str">
         <f>SUBSTITUTE(C14,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$C,3,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$C,3,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$C,3,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$C,3,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="str">
         <f>SUBSTITUTE(C15,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$F,6,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$F,6,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$F,6,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$F,6,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="10" t="str">
         <f>SUBSTITUTE(C16,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$H,8,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$H,8,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$H,8,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$H,8,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="10" t="str">
         <f>SUBSTITUTE(C17,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$J,10,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$J,10,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$J,10,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$J,10,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="10" t="str">
         <f>SUBSTITUTE(C18,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$N,14,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$N,14,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$N,14,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$N,14,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="10" t="str">
         <f>SUBSTITUTE(C19,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$R,18,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$R,18,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$R,18,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$R,18,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="10" t="str">
         <f>SUBSTITUTE(C20,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$S,19,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$S,19,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$S,19,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$S,19,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="10" t="str">
         <f>SUBSTITUTE(C21,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$T,20,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$T,20,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$T,20,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$T,20,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="10" t="str">
         <f>SUBSTITUTE(C22,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$U,21,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$U,21,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$U,21,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$U,21,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="10" t="str">
         <f>SUBSTITUTE(C23,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$V,22,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$V,22,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$V,22,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$V,22,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="10" t="str">
         <f>SUBSTITUTE(C24,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$W,23,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$W,23,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$W,23,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$W,23,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="10" t="str">
         <f>SUBSTITUTE(C25,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$X,24,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$X,24,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$X,24,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$X,24,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="10" t="str">
         <f>SUBSTITUTE(C26,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$Y,25,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$Y,25,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$Y,25,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$Y,25,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="10" t="str">
         <f>SUBSTITUTE(C27,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AB,28,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AB,28,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AB,28,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AB,28,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="10" t="str">
         <f>SUBSTITUTE(C28,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AC,29,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AC,29,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AC,29,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AC,29,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="10" t="str">
         <f>SUBSTITUTE(C29,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AR,44,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AR,44,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AR,44,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AR,44,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="10" t="str">
         <f>SUBSTITUTE(C30,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AV,48,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AV,48,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AV,48,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AV,48,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="10" t="str">
         <f>SUBSTITUTE(C31,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AW,49,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AW,49,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AW,49,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AW,49,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="10" t="str">
         <f>SUBSTITUTE(C32,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AX,50,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AX,50,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AX,50,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AX,50,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="10" t="str">
         <f>SUBSTITUTE(C33,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BA,53,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BA,53,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BA,53,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BA,53,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="10" t="str">
         <f>SUBSTITUTE(C34,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BB,54,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BB,54,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BB,54,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BB,54,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="10" t="str">
         <f>SUBSTITUTE(C35,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BC,55,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BC,55,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BC,55,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BC,55,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="10" t="str">
         <f>SUBSTITUTE(C36,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BD,56,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BD,56,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BD,56,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BD,56,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="10" t="str">
         <f>SUBSTITUTE(C37,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BE,57,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BE,57,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BE,57,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BE,57,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1681,11 +1681,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1701,236 +1701,234 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="37.90625" customWidth="1"/>
-    <col min="6" max="6" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7265625" customWidth="1"/>
-    <col min="8" max="8" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.08984375" customWidth="1"/>
-    <col min="10" max="10" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="38.453125" customWidth="1"/>
-    <col min="14" max="14" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="39.08984375" customWidth="1"/>
-    <col min="18" max="18" width="38.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="38.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="39.08984375" customWidth="1"/>
-    <col min="28" max="29" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="43" width="39.08984375" customWidth="1"/>
-    <col min="44" max="44" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="39.08984375" customWidth="1"/>
-    <col min="48" max="50" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="39.08984375" customWidth="1"/>
-    <col min="53" max="57" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="37.88671875" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.77734375" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.109375" customWidth="1"/>
+    <col min="10" max="10" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="38.44140625" customWidth="1"/>
+    <col min="14" max="14" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="39.109375" customWidth="1"/>
+    <col min="18" max="18" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="39.109375" customWidth="1"/>
+    <col min="28" max="29" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="43" width="39.109375" customWidth="1"/>
+    <col min="44" max="44" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="39.109375" customWidth="1"/>
+    <col min="48" max="50" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="39.109375" customWidth="1"/>
+    <col min="53" max="57" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="9" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="8" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="85" max="88" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="88" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AL1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AR1" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AV1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="BF1" s="2"/>
       <c r="BG1" s="2"/>
@@ -1964,7 +1962,7 @@
       <c r="CI1" s="2"/>
       <c r="CJ1" s="2"/>
     </row>
-    <row r="2" spans="1:88" ht="174" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:88" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1972,9 +1970,9 @@
         <f>SUBSTITUTE(B3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$B,2,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$B,2,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$B,2,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$B,2,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -1982,89 +1980,89 @@
         <f>SUBSTITUTE(C3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$C,3,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$C,3,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$C,3,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$C,3,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>SUBSTITUTE(F3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$F,6,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$F,6,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$F,6,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$F,6,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H2" s="10" t="str">
         <f>SUBSTITUTE(H3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$H,8,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$H,8,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$H,8,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$H,8,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="10" t="str">
         <f>SUBSTITUTE(J3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$J,10,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$J,10,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$J,10,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$J,10,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="K2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="N2" s="10" t="str">
         <f>SUBSTITUTE(N3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$N,14,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$N,14,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$N,14,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$N,14,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="R2" s="10" t="str">
         <f>SUBSTITUTE(R3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$R,18,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$R,18,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$R,18,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$R,18,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2072,9 +2070,9 @@
         <f>SUBSTITUTE(S3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$S,19,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$S,19,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$S,19,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$S,19,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2082,9 +2080,9 @@
         <f>SUBSTITUTE(T3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$T,20,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$T,20,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$T,20,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$T,20,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2092,9 +2090,9 @@
         <f>SUBSTITUTE(U3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$U,21,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$U,21,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$U,21,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$U,21,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2102,9 +2100,9 @@
         <f>SUBSTITUTE(V3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$V,22,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$V,22,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$V,22,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$V,22,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2112,9 +2110,9 @@
         <f>SUBSTITUTE(W3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$W,23,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$W,23,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$W,23,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$W,23,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2122,9 +2120,9 @@
         <f>SUBSTITUTE(X3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$X,24,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$X,24,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$X,24,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$X,24,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2132,25 +2130,25 @@
         <f>SUBSTITUTE(Y3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$Y,25,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$Y,25,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$Y,25,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$Y,25,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="Z2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="AB2" s="10" t="str">
         <f>SUBSTITUTE(AB3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AB,28,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AB,28,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AB,28,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AB,28,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2158,17 +2156,17 @@
         <f>SUBSTITUTE(AC3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AC,29,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AC,29,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AC,29,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AC,29,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="AD2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE2" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
@@ -2177,49 +2175,49 @@
       <c r="AJ2" s="10"/>
       <c r="AK2" s="10"/>
       <c r="AL2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AO2" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="AP2" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AR2" s="10" t="str">
         <f>SUBSTITUTE(AR3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AR,44,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AR,44,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AR,44,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AR,44,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="AS2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="AU2" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="AV2" s="10" t="str">
         <f>SUBSTITUTE(AV3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AV,48,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AV,48,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AV,48,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AV,48,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2227,9 +2225,9 @@
         <f>SUBSTITUTE(AW3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AW,49,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AW,49,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AW,49,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AW,49,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2237,25 +2235,25 @@
         <f>SUBSTITUTE(AX3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AX,50,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AX,50,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$AX,50,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$AX,50,FALSE),
    "Error")),
 "")</v>
       </c>
       <c r="AY2" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AZ2" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BA2" s="10" t="str">
         <f>SUBSTITUTE(BA3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BA,53,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BA,53,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BA,53,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BA,53,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2263,9 +2261,9 @@
         <f>SUBSTITUTE(BB3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BB,54,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BB,54,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BB,54,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BB,54,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2273,9 +2271,9 @@
         <f>SUBSTITUTE(BC3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BC,55,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BC,55,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BC,55,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BC,55,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2283,9 +2281,9 @@
         <f>SUBSTITUTE(BD3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BD,56,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BD,56,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BD,56,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BD,56,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2293,9 +2291,9 @@
         <f>SUBSTITUTE(BE3,"{PATH}",'System Path'!$A$1)</f>
         <v>IF(ORDER!O#VAL#&gt;0,
  IF(ORDER!$D$1="SGST",
- VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BE,57,FALSE),
-   IF(ORDER!$D$1="IGST",
-   VLOOKUP(H#DBFROWS#,'C:\C-BIA\PurchaseOrder\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BE,57,FALSE),
+ VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[SGST Master.xlsx]DBF'!$A:$BE,57,FALSE),
+   IF(ORDER!$D$1="IGST",
+   VLOOKUP(H#DBFROWS#,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[IGST Master.xlsx]DBF'!$A:$BE,57,FALSE),
    "Error")),
 "")</v>
       </c>
@@ -2316,77 +2314,77 @@
       <c r="CI2" s="9"/>
       <c r="CJ2" s="9"/>
     </row>
-    <row r="3" spans="1:88" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:88" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="X3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="Y3" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
       <c r="AB3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
@@ -2401,49 +2399,49 @@
       <c r="AN3" s="10"/>
       <c r="AO3" s="10"/>
       <c r="AP3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AQ3" s="10"/>
       <c r="AR3" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AS3" s="10"/>
       <c r="AT3" s="10"/>
       <c r="AU3" s="10"/>
       <c r="AV3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AX3" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="AX3" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="AY3" s="10"/>
       <c r="AZ3" s="10"/>
       <c r="BA3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="BB3" s="10" t="s">
+      <c r="BC3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="BC3" s="10" t="s">
+      <c r="BD3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="BD3" s="10" t="s">
+      <c r="BE3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BE3" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="CD3" s="5"/>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
